--- a/Factors and Ridership Data/Model Estimation/Est8/FAC  7-4.xlsx
+++ b/Factors and Ridership Data/Model Estimation/Est8/FAC  7-4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoK\OneDrive - University of Kentucky\github\Transit_ridership\transit_ridership_decline\Factors and Ridership Data\Model Estimation\Est7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rianajawad/Documents/GitHub/transit_ridership_decline/Factors and Ridership Data/Model Estimation/Est8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3ED10CAE8D821312B89480C85AE1F592607CD07F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0928FDC7-5C98-48AC-A3A8-62641A313375}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130CCEF1-098D-8F4F-ABFE-D038E9737849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary-Bus" sheetId="21" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1161,22 +1163,22 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="5.125" customWidth="1"/>
-    <col min="12" max="12" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B1" s="72" t="s">
         <v>70</v>
       </c>
@@ -1184,8 +1186,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65"/>
       <c r="C3" s="121" t="s">
         <v>72</v>
@@ -1213,7 +1215,7 @@
       <c r="S3" s="121"/>
       <c r="T3" s="121"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="28" t="s">
         <v>40</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>0.11695001767624388</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>63</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>-6.3100792758316246E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>59</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>2.4251189635833045E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="28" t="s">
         <v>83</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>-6.1912993070158354E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
         <v>60</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>-4.5706012741918087E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>57</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>-2.0923653906467957E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
         <v>84</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>-9.9713537026787941E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>58</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>-1.4239350701517235E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>85</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>-7.4560694931295621E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>85</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>85</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
         <v>85</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
         <v>86</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>1.441246053376169E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>87</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>-4.3114157816594452E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="45" t="s">
         <v>64</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="28" t="s">
         <v>88</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>-0.11963309672813971</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>-5.9774961400508198E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="61" t="s">
         <v>89</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>5.9858135327631512E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:F3"/>
@@ -2330,33 +2332,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="5.125" customWidth="1"/>
-    <col min="12" max="12" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="72" t="s">
         <v>73</v>
       </c>
@@ -2364,8 +2362,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="121" t="s">
         <v>72</v>
@@ -2393,7 +2391,7 @@
       <c r="S4" s="121"/>
       <c r="T4" s="121"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>40</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>2.8680796041227963E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
         <v>63</v>
       </c>
@@ -2594,7 +2592,7 @@
       </c>
       <c r="U7" s="74"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="28" t="s">
         <v>59</v>
       </c>
@@ -2667,7 +2665,7 @@
       </c>
       <c r="U8" s="74"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
         <v>83</v>
       </c>
@@ -2740,7 +2738,7 @@
       </c>
       <c r="U9" s="74"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>60</v>
       </c>
@@ -2813,7 +2811,7 @@
       </c>
       <c r="U10" s="74"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
         <v>57</v>
       </c>
@@ -2886,7 +2884,7 @@
       </c>
       <c r="U11" s="74"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>84</v>
       </c>
@@ -2959,7 +2957,7 @@
       </c>
       <c r="U12" s="74"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>58</v>
       </c>
@@ -3032,7 +3030,7 @@
       </c>
       <c r="U13" s="74"/>
     </row>
-    <row r="14" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>85</v>
       </c>
@@ -3105,7 +3103,7 @@
       </c>
       <c r="U14" s="74"/>
     </row>
-    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>85</v>
       </c>
@@ -3178,7 +3176,7 @@
       </c>
       <c r="U15" s="74"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
         <v>85</v>
       </c>
@@ -3227,7 +3225,7 @@
       </c>
       <c r="U16" s="74"/>
     </row>
-    <row r="17" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
         <v>85</v>
       </c>
@@ -3264,7 +3262,7 @@
       </c>
       <c r="U17" s="74"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
         <v>86</v>
       </c>
@@ -3313,7 +3311,7 @@
       </c>
       <c r="U18" s="74"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>87</v>
       </c>
@@ -3362,7 +3360,7 @@
       </c>
       <c r="U19" s="74"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
         <v>64</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="28" t="s">
         <v>88</v>
       </c>
@@ -3458,7 +3456,7 @@
         <v>-0.1288514888046226</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>61</v>
       </c>
@@ -3506,7 +3504,7 @@
         <v>3.3900820514809915E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
         <v>89</v>
       </c>
@@ -3554,7 +3552,7 @@
         <v>0.16275230931943252</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C4:F4"/>
@@ -3571,34 +3569,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="13"/>
-    <col min="2" max="2" width="32.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.625" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="28" width="11.625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="28" width="11.6640625" style="15" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="10" style="15" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="12.125" style="15" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" style="15" customWidth="1"/>
     <col min="31" max="31" width="17.5" style="13" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
         <v>46</v>
       </c>
@@ -3616,7 +3614,7 @@
       <c r="E2" s="9"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
@@ -3649,7 +3647,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
@@ -3684,7 +3682,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="13"/>
@@ -3715,7 +3713,7 @@
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
@@ -3750,7 +3748,7 @@
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
@@ -3785,7 +3783,7 @@
       <c r="AC7" s="25"/>
       <c r="AD7" s="25"/>
     </row>
-    <row r="8" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
       <c r="C8" s="66"/>
       <c r="D8" s="66"/>
@@ -3820,7 +3818,7 @@
       </c>
       <c r="AD8" s="121"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -3871,7 +3869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="28"/>
       <c r="C10" s="31"/>
@@ -3936,7 +3934,7 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="9"/>
@@ -4021,7 +4019,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
       <c r="C12" s="31"/>
       <c r="D12" s="9"/>
@@ -4056,7 +4054,7 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
     </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="28" t="s">
         <v>40</v>
@@ -4172,7 +4170,7 @@
       </c>
       <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="28" t="s">
         <v>63</v>
@@ -4288,7 +4286,7 @@
       </c>
       <c r="AE14" s="9"/>
     </row>
-    <row r="15" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="28" t="s">
         <v>59</v>
@@ -4404,7 +4402,7 @@
       </c>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="28" t="s">
         <v>83</v>
@@ -4518,7 +4516,7 @@
       </c>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="28" t="s">
         <v>60</v>
@@ -4634,7 +4632,7 @@
       </c>
       <c r="AE17" s="9"/>
     </row>
-    <row r="18" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="28" t="s">
         <v>57</v>
@@ -4750,7 +4748,7 @@
       </c>
       <c r="AE18" s="9"/>
     </row>
-    <row r="19" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="28" t="s">
         <v>84</v>
@@ -4864,7 +4862,7 @@
       </c>
       <c r="AE19" s="9"/>
     </row>
-    <row r="20" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="28" t="s">
         <v>58</v>
@@ -4978,7 +4976,7 @@
       </c>
       <c r="AE20" s="9"/>
     </row>
-    <row r="21" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="28" t="s">
         <v>85</v>
@@ -5092,7 +5090,7 @@
       </c>
       <c r="AE21" s="9"/>
     </row>
-    <row r="22" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="28" t="s">
         <v>85</v>
@@ -5206,7 +5204,7 @@
       </c>
       <c r="AE22" s="9"/>
     </row>
-    <row r="23" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="28" t="s">
         <v>85</v>
@@ -5317,7 +5315,7 @@
       </c>
       <c r="AE23" s="9"/>
     </row>
-    <row r="24" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
@@ -5428,7 +5426,7 @@
       </c>
       <c r="AE24" s="9"/>
     </row>
-    <row r="25" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
@@ -5542,7 +5540,7 @@
       </c>
       <c r="AE25" s="9"/>
     </row>
-    <row r="26" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="11" t="s">
         <v>87</v>
@@ -5656,7 +5654,7 @@
       </c>
       <c r="AE26" s="9"/>
     </row>
-    <row r="27" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="45" t="s">
         <v>64</v>
@@ -5753,7 +5751,7 @@
       </c>
       <c r="AE27" s="9"/>
     </row>
-    <row r="28" spans="1:31" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="111"/>
       <c r="B28" s="28" t="s">
         <v>88</v>
@@ -5856,7 +5854,7 @@
       </c>
       <c r="AE28" s="111"/>
     </row>
-    <row r="29" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>61</v>
       </c>
@@ -5909,7 +5907,7 @@
         <v>-7.6403999382182564E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="61" t="s">
         <v>89</v>
       </c>
@@ -5945,15 +5943,15 @@
         <v>-6.622371920958281E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="9"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
@@ -5988,7 +5986,7 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="13"/>
@@ -6019,7 +6017,7 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>33</v>
       </c>
@@ -6054,7 +6052,7 @@
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
     </row>
-    <row r="36" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>42</v>
       </c>
@@ -6089,7 +6087,7 @@
       <c r="AC36" s="25"/>
       <c r="AD36" s="25"/>
     </row>
-    <row r="37" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B37" s="65"/>
       <c r="C37" s="66"/>
       <c r="D37" s="66"/>
@@ -6124,7 +6122,7 @@
       </c>
       <c r="AD37" s="121"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -6175,7 +6173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="28"/>
       <c r="C39" s="31"/>
       <c r="D39" s="9"/>
@@ -6238,7 +6236,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="28"/>
       <c r="C40" s="31"/>
       <c r="D40" s="9"/>
@@ -6323,7 +6321,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="28"/>
       <c r="C41" s="31"/>
       <c r="D41" s="9"/>
@@ -6358,7 +6356,7 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="28" t="s">
         <v>40</v>
       </c>
@@ -6472,7 +6470,7 @@
         <v>2.7094768160714815E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="28" t="s">
         <v>63</v>
       </c>
@@ -6586,7 +6584,7 @@
         <v>-3.6277121281513822E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="28" t="s">
         <v>59</v>
       </c>
@@ -6700,7 +6698,7 @@
         <v>9.3210558485432096E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="28" t="s">
         <v>83</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>-5.1488190476304707E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="28" t="s">
         <v>60</v>
       </c>
@@ -6926,7 +6924,7 @@
         <v>4.4542173990325375E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="28" t="s">
         <v>57</v>
       </c>
@@ -7040,7 +7038,7 @@
         <v>3.8533586892042608E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="28" t="s">
         <v>84</v>
       </c>
@@ -7152,7 +7150,7 @@
         <v>-4.5898550490746362E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="28" t="s">
         <v>58</v>
       </c>
@@ -7264,7 +7262,7 @@
         <v>-7.3194587138773019E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="28" t="s">
         <v>85</v>
       </c>
@@ -7376,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="B51" s="28" t="s">
         <v>85</v>
       </c>
@@ -7488,7 +7486,7 @@
         <v>-0.15029317267427483</v>
       </c>
     </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="28" t="s">
         <v>85</v>
       </c>
@@ -7597,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="28" t="s">
         <v>85</v>
       </c>
@@ -7706,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="28" t="s">
         <v>86</v>
       </c>
@@ -7818,7 +7816,7 @@
         <v>1.3541934518585345E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
@@ -7930,7 +7928,7 @@
         <v>-1.9814318591266613E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="45" t="s">
         <v>64</v>
       </c>
@@ -8025,7 +8023,7 @@
         <v>5.6178996307298945E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="113"/>
       <c r="B57" s="28" t="s">
         <v>88</v>
@@ -8128,7 +8126,7 @@
       </c>
       <c r="AE57" s="113"/>
     </row>
-    <row r="58" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -8181,7 +8179,7 @@
         <v>-4.2095409721809474E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61" t="s">
         <v>89</v>
       </c>
@@ -8217,15 +8215,15 @@
         <v>-7.8135409063111338E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="9"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="18" t="s">
         <v>22</v>
       </c>
@@ -8260,7 +8258,7 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="13"/>
@@ -8291,7 +8289,7 @@
       <c r="AC63" s="13"/>
       <c r="AD63" s="13"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="21" t="s">
         <v>33</v>
       </c>
@@ -8326,7 +8324,7 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
     </row>
-    <row r="65" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="23" t="s">
         <v>43</v>
       </c>
@@ -8361,7 +8359,7 @@
       <c r="AC65" s="25"/>
       <c r="AD65" s="25"/>
     </row>
-    <row r="66" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B66" s="65"/>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
@@ -8396,7 +8394,7 @@
       </c>
       <c r="AD66" s="121"/>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>24</v>
       </c>
@@ -8447,7 +8445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="28"/>
       <c r="C68" s="31"/>
       <c r="D68" s="9"/>
@@ -8510,7 +8508,7 @@
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
     </row>
-    <row r="69" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="28"/>
       <c r="C69" s="31"/>
       <c r="D69" s="9"/>
@@ -8595,7 +8593,7 @@
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
     </row>
-    <row r="70" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="28"/>
       <c r="C70" s="31"/>
       <c r="D70" s="9"/>
@@ -8630,7 +8628,7 @@
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="28" t="s">
         <v>40</v>
       </c>
@@ -8744,7 +8742,7 @@
         <v>0.47244771056588131</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="28" t="s">
         <v>63</v>
       </c>
@@ -8858,7 +8856,7 @@
         <v>-9.693474949104372E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="28" t="s">
         <v>59</v>
       </c>
@@ -8972,7 +8970,7 @@
         <v>0.15708341962183137</v>
       </c>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="28" t="s">
         <v>83</v>
       </c>
@@ -9084,7 +9082,7 @@
         <v>-4.8735618388294967E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="28" t="s">
         <v>60</v>
       </c>
@@ -9198,7 +9196,7 @@
         <v>3.5044400349495214E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="28" t="s">
         <v>57</v>
       </c>
@@ -9312,7 +9310,7 @@
         <v>4.7007007996369803E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="28" t="s">
         <v>84</v>
       </c>
@@ -9424,7 +9422,7 @@
         <v>5.3616908153837819E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="28" t="s">
         <v>58</v>
       </c>
@@ -9536,7 +9534,7 @@
         <v>-1.2349425109981545E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="28" t="s">
         <v>85</v>
       </c>
@@ -9648,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" ht="30" x14ac:dyDescent="0.2">
       <c r="B80" s="28" t="s">
         <v>85</v>
       </c>
@@ -9760,7 +9758,7 @@
         <v>-0.27180663901634328</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="28" t="s">
         <v>85</v>
       </c>
@@ -9866,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="28" t="s">
         <v>85</v>
       </c>
@@ -9972,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="28" t="s">
         <v>86</v>
       </c>
@@ -10085,7 +10083,7 @@
       </c>
       <c r="AG83" s="57"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>87</v>
       </c>
@@ -10197,7 +10195,7 @@
         <v>-8.2412791985925719E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="45" t="s">
         <v>64</v>
       </c>
@@ -10292,7 +10290,7 @@
         <v>0.75740920039829795</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="113"/>
       <c r="B86" s="28" t="s">
         <v>88</v>
@@ -10395,7 +10393,7 @@
       </c>
       <c r="AE86" s="113"/>
     </row>
-    <row r="87" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>61</v>
       </c>
@@ -10448,7 +10446,7 @@
         <v>1.0959995830937945</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="61" t="s">
         <v>89</v>
       </c>
@@ -10484,15 +10482,15 @@
         <v>-8.77955583237644E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:33" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="9"/>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="s">
         <v>22</v>
       </c>
@@ -10527,7 +10525,7 @@
       <c r="AC91" s="13"/>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="13"/>
@@ -10558,7 +10556,7 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>33</v>
       </c>
@@ -10593,7 +10591,7 @@
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="s">
         <v>44</v>
       </c>
@@ -10628,7 +10626,7 @@
       <c r="AC94" s="25"/>
       <c r="AD94" s="25"/>
     </row>
-    <row r="95" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B95" s="65"/>
       <c r="C95" s="66"/>
       <c r="D95" s="66"/>
@@ -10663,7 +10661,7 @@
       </c>
       <c r="AD95" s="121"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="11" t="s">
         <v>24</v>
       </c>
@@ -10714,7 +10712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="2:31" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:31" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="28"/>
       <c r="C97" s="31"/>
       <c r="D97" s="9"/>
@@ -10777,7 +10775,7 @@
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
     </row>
-    <row r="98" spans="2:31" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:31" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="28"/>
       <c r="C98" s="31"/>
       <c r="D98" s="9"/>
@@ -10862,7 +10860,7 @@
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
     </row>
-    <row r="99" spans="2:31" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:31" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="28"/>
       <c r="C99" s="31"/>
       <c r="D99" s="9"/>
@@ -10897,7 +10895,7 @@
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
     </row>
-    <row r="100" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B100" s="28" t="s">
         <v>40</v>
       </c>
@@ -11012,7 +11010,7 @@
       </c>
       <c r="AE100" s="109"/>
     </row>
-    <row r="101" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B101" s="28" t="s">
         <v>63</v>
       </c>
@@ -11127,7 +11125,7 @@
       </c>
       <c r="AE101" s="109"/>
     </row>
-    <row r="102" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B102" s="28" t="s">
         <v>59</v>
       </c>
@@ -11242,7 +11240,7 @@
       </c>
       <c r="AE102" s="109"/>
     </row>
-    <row r="103" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B103" s="28" t="s">
         <v>83</v>
       </c>
@@ -11355,7 +11353,7 @@
       </c>
       <c r="AE103" s="109"/>
     </row>
-    <row r="104" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="28" t="s">
         <v>60</v>
       </c>
@@ -11470,7 +11468,7 @@
       </c>
       <c r="AE104" s="109"/>
     </row>
-    <row r="105" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B105" s="28" t="s">
         <v>57</v>
       </c>
@@ -11585,7 +11583,7 @@
       </c>
       <c r="AE105" s="109"/>
     </row>
-    <row r="106" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="28" t="s">
         <v>84</v>
       </c>
@@ -11698,7 +11696,7 @@
       </c>
       <c r="AE106" s="109"/>
     </row>
-    <row r="107" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B107" s="28" t="s">
         <v>58</v>
       </c>
@@ -11811,7 +11809,7 @@
       </c>
       <c r="AE107" s="109"/>
     </row>
-    <row r="108" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B108" s="28" t="s">
         <v>85</v>
       </c>
@@ -11924,7 +11922,7 @@
       </c>
       <c r="AE108" s="109"/>
     </row>
-    <row r="109" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:31" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="28" t="s">
         <v>85</v>
       </c>
@@ -12037,7 +12035,7 @@
       </c>
       <c r="AE109" s="109"/>
     </row>
-    <row r="110" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="28" t="s">
         <v>85</v>
       </c>
@@ -12144,7 +12142,7 @@
       </c>
       <c r="AE110" s="109"/>
     </row>
-    <row r="111" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:31" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="28" t="s">
         <v>85</v>
       </c>
@@ -12251,7 +12249,7 @@
       </c>
       <c r="AE111" s="109"/>
     </row>
-    <row r="112" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B112" s="28" t="s">
         <v>86</v>
       </c>
@@ -12364,7 +12362,7 @@
       </c>
       <c r="AE112" s="109"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
         <v>87</v>
       </c>
@@ -12477,7 +12475,7 @@
       </c>
       <c r="AE113" s="109"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="45" t="s">
         <v>64</v>
       </c>
@@ -12572,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="113"/>
       <c r="B115" s="28" t="s">
         <v>88</v>
@@ -12675,7 +12673,7 @@
       </c>
       <c r="AE115" s="113"/>
     </row>
-    <row r="116" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>61</v>
       </c>
@@ -12728,7 +12726,7 @@
         <v>-6.2464473882765104E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="61" t="s">
         <v>89</v>
       </c>
@@ -12764,10 +12762,10 @@
         <v>2.8615193720271326E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="AE118" s="109"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE119" s="109"/>
     </row>
   </sheetData>
@@ -12794,30 +12792,30 @@
       <selection activeCell="B114" sqref="B114:AD117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="13"/>
-    <col min="2" max="2" width="32.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.625" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="28" width="11.625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="28" width="11.6640625" style="15" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="16.5" style="15" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="12.125" style="15" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" style="15" customWidth="1"/>
     <col min="31" max="31" width="11" style="13"/>
     <col min="32" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
@@ -12825,7 +12823,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>46</v>
       </c>
@@ -12833,14 +12831,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
@@ -12875,7 +12873,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="13"/>
@@ -12906,7 +12904,7 @@
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
@@ -12941,7 +12939,7 @@
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
@@ -12976,7 +12974,7 @@
       <c r="AC7" s="25"/>
       <c r="AD7" s="25"/>
     </row>
-    <row r="8" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
       <c r="C8" s="66"/>
       <c r="D8" s="66"/>
@@ -13011,7 +13009,7 @@
       </c>
       <c r="AD8" s="121"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -13062,7 +13060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="28"/>
       <c r="C10" s="31"/>
@@ -13127,7 +13125,7 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="9"/>
@@ -13212,7 +13210,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
       <c r="C12" s="31"/>
       <c r="D12" s="9"/>
@@ -13247,7 +13245,7 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
     </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="28" t="s">
         <v>40</v>
@@ -13363,7 +13361,7 @@
       </c>
       <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="28" t="s">
         <v>63</v>
@@ -13479,7 +13477,7 @@
       </c>
       <c r="AE14" s="9"/>
     </row>
-    <row r="15" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="28" t="s">
         <v>59</v>
@@ -13595,7 +13593,7 @@
       </c>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="28" t="s">
         <v>83</v>
@@ -13709,7 +13707,7 @@
       </c>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="28" t="s">
         <v>60</v>
@@ -13825,7 +13823,7 @@
       </c>
       <c r="AE17" s="9"/>
     </row>
-    <row r="18" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="28" t="s">
         <v>57</v>
@@ -13941,7 +13939,7 @@
       </c>
       <c r="AE18" s="9"/>
     </row>
-    <row r="19" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="28" t="s">
         <v>84</v>
@@ -14055,7 +14053,7 @@
       </c>
       <c r="AE19" s="9"/>
     </row>
-    <row r="20" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="28" t="s">
         <v>58</v>
@@ -14169,7 +14167,7 @@
       </c>
       <c r="AE20" s="9"/>
     </row>
-    <row r="21" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="28" t="s">
         <v>85</v>
@@ -14283,7 +14281,7 @@
       </c>
       <c r="AE21" s="9"/>
     </row>
-    <row r="22" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="28" t="s">
         <v>85</v>
@@ -14397,7 +14395,7 @@
       </c>
       <c r="AE22" s="9"/>
     </row>
-    <row r="23" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="28" t="s">
         <v>85</v>
@@ -14508,7 +14506,7 @@
       </c>
       <c r="AE23" s="9"/>
     </row>
-    <row r="24" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
@@ -14619,7 +14617,7 @@
       </c>
       <c r="AE24" s="9"/>
     </row>
-    <row r="25" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
@@ -14733,7 +14731,7 @@
       </c>
       <c r="AE25" s="9"/>
     </row>
-    <row r="26" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="11" t="s">
         <v>87</v>
@@ -14847,7 +14845,7 @@
       </c>
       <c r="AE26" s="9"/>
     </row>
-    <row r="27" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="45" t="s">
         <v>64</v>
@@ -14944,7 +14942,7 @@
       </c>
       <c r="AE27" s="9"/>
     </row>
-    <row r="28" spans="1:31" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="111"/>
       <c r="B28" s="28" t="s">
         <v>88</v>
@@ -15047,7 +15045,7 @@
       </c>
       <c r="AE28" s="111"/>
     </row>
-    <row r="29" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>61</v>
       </c>
@@ -15100,7 +15098,7 @@
         <v>-0.11626745990307363</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="61" t="s">
         <v>89</v>
       </c>
@@ -15136,15 +15134,15 @@
         <v>-2.7359335203314683E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="9"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
@@ -15179,7 +15177,7 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="13"/>
@@ -15210,7 +15208,7 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>33</v>
       </c>
@@ -15245,7 +15243,7 @@
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
     </row>
-    <row r="36" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>42</v>
       </c>
@@ -15280,7 +15278,7 @@
       <c r="AC36" s="25"/>
       <c r="AD36" s="25"/>
     </row>
-    <row r="37" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B37" s="65"/>
       <c r="C37" s="66"/>
       <c r="D37" s="66"/>
@@ -15315,7 +15313,7 @@
       </c>
       <c r="AD37" s="121"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -15366,7 +15364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="28"/>
       <c r="C39" s="31"/>
       <c r="D39" s="9"/>
@@ -15429,7 +15427,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="28"/>
       <c r="C40" s="31"/>
       <c r="D40" s="9"/>
@@ -15514,7 +15512,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="28"/>
       <c r="C41" s="31"/>
       <c r="D41" s="9"/>
@@ -15549,7 +15547,7 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="28" t="s">
         <v>40</v>
       </c>
@@ -15663,7 +15661,7 @@
         <v>6.3028282469003827E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="28" t="s">
         <v>63</v>
       </c>
@@ -15777,7 +15775,7 @@
         <v>-1.2210106076450952E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="28" t="s">
         <v>59</v>
       </c>
@@ -15891,7 +15889,7 @@
         <v>3.0251733316718796E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="28" t="s">
         <v>83</v>
       </c>
@@ -16003,7 +16001,7 @@
         <v>-3.6313631967572284E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="28" t="s">
         <v>60</v>
       </c>
@@ -16117,7 +16115,7 @@
         <v>-4.7390858041924666E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="28" t="s">
         <v>57</v>
       </c>
@@ -16231,7 +16229,7 @@
         <v>-2.3978225855900683E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="28" t="s">
         <v>84</v>
       </c>
@@ -16343,7 +16341,7 @@
         <v>-6.6811690166879269E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="28" t="s">
         <v>58</v>
       </c>
@@ -16455,7 +16453,7 @@
         <v>-3.8734284853880526E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="28" t="s">
         <v>85</v>
       </c>
@@ -16567,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="B51" s="28" t="s">
         <v>85</v>
       </c>
@@ -16679,7 +16677,7 @@
         <v>-0.1254041514565335</v>
       </c>
     </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="28" t="s">
         <v>85</v>
       </c>
@@ -16788,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="28" t="s">
         <v>85</v>
       </c>
@@ -16897,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="28" t="s">
         <v>86</v>
       </c>
@@ -17009,7 +17007,7 @@
         <v>1.0458239721970486E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
@@ -17121,7 +17119,7 @@
         <v>-1.6533005228470503E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="45" t="s">
         <v>64</v>
       </c>
@@ -17216,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="113"/>
       <c r="B57" s="28" t="s">
         <v>88</v>
@@ -17319,7 +17317,7 @@
       </c>
       <c r="AE57" s="113"/>
     </row>
-    <row r="58" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -17372,7 +17370,7 @@
         <v>-0.18053245029873743</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61" t="s">
         <v>89</v>
       </c>
@@ -17408,15 +17406,15 @@
         <v>-4.5000973256880461E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="9"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="18" t="s">
         <v>22</v>
       </c>
@@ -17451,7 +17449,7 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="13"/>
@@ -17482,7 +17480,7 @@
       <c r="AC63" s="13"/>
       <c r="AD63" s="13"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="21" t="s">
         <v>33</v>
       </c>
@@ -17517,7 +17515,7 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
     </row>
-    <row r="65" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="23" t="s">
         <v>43</v>
       </c>
@@ -17552,7 +17550,7 @@
       <c r="AC65" s="25"/>
       <c r="AD65" s="25"/>
     </row>
-    <row r="66" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B66" s="65"/>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
@@ -17587,7 +17585,7 @@
       </c>
       <c r="AD66" s="121"/>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>24</v>
       </c>
@@ -17638,7 +17636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="28"/>
       <c r="C68" s="31"/>
       <c r="D68" s="9"/>
@@ -17701,7 +17699,7 @@
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
     </row>
-    <row r="69" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="28"/>
       <c r="C69" s="31"/>
       <c r="D69" s="9"/>
@@ -17786,7 +17784,7 @@
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
     </row>
-    <row r="70" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="28"/>
       <c r="C70" s="31"/>
       <c r="D70" s="9"/>
@@ -17821,7 +17819,7 @@
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="28" t="s">
         <v>40</v>
       </c>
@@ -17935,7 +17933,7 @@
         <v>7.1728514740824839E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="28" t="s">
         <v>63</v>
       </c>
@@ -18049,7 +18047,7 @@
         <v>-3.8866814645018628E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="28" t="s">
         <v>59</v>
       </c>
@@ -18163,7 +18161,7 @@
         <v>2.0530507191282379E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="28" t="s">
         <v>83</v>
       </c>
@@ -18275,7 +18273,7 @@
         <v>-2.5494058587465897E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="28" t="s">
         <v>60</v>
       </c>
@@ -18389,7 +18387,7 @@
         <v>-4.9801200375703902E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="28" t="s">
         <v>57</v>
       </c>
@@ -18503,7 +18501,7 @@
         <v>-2.2805568142770311E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="28" t="s">
         <v>84</v>
       </c>
@@ -18615,7 +18613,7 @@
         <v>-2.7408097630090339E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="28" t="s">
         <v>58</v>
       </c>
@@ -18727,7 +18725,7 @@
         <v>-3.6001211038919679E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="28" t="s">
         <v>85</v>
       </c>
@@ -18839,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" ht="30" x14ac:dyDescent="0.2">
       <c r="B80" s="28" t="s">
         <v>85</v>
       </c>
@@ -18951,7 +18949,7 @@
         <v>-0.10926997840717276</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="28" t="s">
         <v>85</v>
       </c>
@@ -19057,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="28" t="s">
         <v>85</v>
       </c>
@@ -19163,7 +19161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="28" t="s">
         <v>86</v>
       </c>
@@ -19276,7 +19274,7 @@
       </c>
       <c r="AG83" s="57"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>87</v>
       </c>
@@ -19388,7 +19386,7 @@
         <v>-3.3131067119502745E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="45" t="s">
         <v>64</v>
       </c>
@@ -19483,7 +19481,7 @@
         <v>6.0122963052330926E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="113"/>
       <c r="B86" s="28" t="s">
         <v>88</v>
@@ -19586,7 +19584,7 @@
       </c>
       <c r="AE86" s="113"/>
     </row>
-    <row r="87" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>61</v>
       </c>
@@ -19639,7 +19637,7 @@
         <v>-0.15353269135322589</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="61" t="s">
         <v>89</v>
       </c>
@@ -19675,15 +19673,15 @@
         <v>-3.1448141880677571E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:33" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="9"/>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="s">
         <v>22</v>
       </c>
@@ -19718,7 +19716,7 @@
       <c r="AC91" s="13"/>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="13"/>
@@ -19749,7 +19747,7 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>33</v>
       </c>
@@ -19784,7 +19782,7 @@
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="s">
         <v>44</v>
       </c>
@@ -19819,7 +19817,7 @@
       <c r="AC94" s="25"/>
       <c r="AD94" s="25"/>
     </row>
-    <row r="95" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B95" s="65"/>
       <c r="C95" s="66"/>
       <c r="D95" s="66"/>
@@ -19854,7 +19852,7 @@
       </c>
       <c r="AD95" s="121"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="11" t="s">
         <v>24</v>
       </c>
@@ -19905,7 +19903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="28"/>
       <c r="C97" s="31"/>
       <c r="D97" s="9"/>
@@ -19968,7 +19966,7 @@
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
     </row>
-    <row r="98" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="28"/>
       <c r="C98" s="31"/>
       <c r="D98" s="9"/>
@@ -20053,7 +20051,7 @@
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
     </row>
-    <row r="99" spans="2:30" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:30" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="28"/>
       <c r="C99" s="31"/>
       <c r="D99" s="9"/>
@@ -20088,7 +20086,7 @@
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
     </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B100" s="28" t="s">
         <v>40</v>
       </c>
@@ -20202,7 +20200,7 @@
         <v>0.11695001767624388</v>
       </c>
     </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B101" s="28" t="s">
         <v>63</v>
       </c>
@@ -20316,7 +20314,7 @@
         <v>-6.3100792758316246E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B102" s="28" t="s">
         <v>59</v>
       </c>
@@ -20430,7 +20428,7 @@
         <v>2.4251189635833045E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B103" s="28" t="s">
         <v>83</v>
       </c>
@@ -20542,7 +20540,7 @@
         <v>-6.1912993070158354E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="28" t="s">
         <v>60</v>
       </c>
@@ -20656,7 +20654,7 @@
         <v>-4.5706012741918087E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B105" s="28" t="s">
         <v>57</v>
       </c>
@@ -20770,7 +20768,7 @@
         <v>-2.0923653906467957E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="28" t="s">
         <v>84</v>
       </c>
@@ -20882,7 +20880,7 @@
         <v>-9.9713537026787941E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B107" s="28" t="s">
         <v>58</v>
       </c>
@@ -20994,7 +20992,7 @@
         <v>-1.4239350701517235E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B108" s="28" t="s">
         <v>85</v>
       </c>
@@ -21106,7 +21104,7 @@
         <v>-7.4560694931295621E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="28" t="s">
         <v>85</v>
       </c>
@@ -21218,7 +21216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:30" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="28" t="s">
         <v>85</v>
       </c>
@@ -21324,7 +21322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="28" t="s">
         <v>85</v>
       </c>
@@ -21430,7 +21428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B112" s="28" t="s">
         <v>86</v>
       </c>
@@ -21542,7 +21540,7 @@
         <v>1.441246053376169E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
         <v>87</v>
       </c>
@@ -21654,7 +21652,7 @@
         <v>-4.3114157816594452E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="45" t="s">
         <v>64</v>
       </c>
@@ -21749,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="113"/>
       <c r="B115" s="28" t="s">
         <v>88</v>
@@ -21852,7 +21850,7 @@
       </c>
       <c r="AE115" s="113"/>
     </row>
-    <row r="116" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>61</v>
       </c>
@@ -21905,7 +21903,7 @@
         <v>-5.9774961400508198E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="61" t="s">
         <v>89</v>
       </c>
@@ -21941,7 +21939,7 @@
         <v>5.9858135327631512E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G95:I95"/>
@@ -21966,30 +21964,30 @@
       <selection activeCell="B115" sqref="B115:AD118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="13"/>
-    <col min="2" max="2" width="32.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.625" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="28" width="11.625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="28" width="11.6640625" style="15" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="16.5" style="15" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="12.125" style="15" customWidth="1"/>
-    <col min="31" max="31" width="15.375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" style="15" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" style="13" customWidth="1"/>
     <col min="32" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
@@ -21997,7 +21995,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>46</v>
       </c>
@@ -22005,14 +22003,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
@@ -22047,7 +22045,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="13"/>
@@ -22078,7 +22076,7 @@
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
@@ -22113,7 +22111,7 @@
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
@@ -22148,7 +22146,7 @@
       <c r="AC7" s="25"/>
       <c r="AD7" s="25"/>
     </row>
-    <row r="8" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -22183,7 +22181,7 @@
       </c>
       <c r="AD8" s="121"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -22234,7 +22232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="28"/>
       <c r="C10" s="31"/>
@@ -22299,7 +22297,7 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="9"/>
@@ -22384,7 +22382,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
       <c r="C12" s="31"/>
       <c r="D12" s="9"/>
@@ -22419,7 +22417,7 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
     </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="28" t="s">
         <v>40</v>
@@ -22535,7 +22533,7 @@
       </c>
       <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="28" t="s">
         <v>63</v>
@@ -22651,7 +22649,7 @@
       </c>
       <c r="AE14" s="9"/>
     </row>
-    <row r="15" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="28" t="s">
         <v>59</v>
@@ -22767,7 +22765,7 @@
       </c>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="28" t="s">
         <v>83</v>
@@ -22881,7 +22879,7 @@
       </c>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="28" t="s">
         <v>60</v>
@@ -22997,7 +22995,7 @@
       </c>
       <c r="AE17" s="9"/>
     </row>
-    <row r="18" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="28" t="s">
         <v>57</v>
@@ -23113,7 +23111,7 @@
       </c>
       <c r="AE18" s="9"/>
     </row>
-    <row r="19" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="28" t="s">
         <v>84</v>
@@ -23227,7 +23225,7 @@
       </c>
       <c r="AE19" s="9"/>
     </row>
-    <row r="20" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="28" t="s">
         <v>58</v>
@@ -23341,7 +23339,7 @@
       </c>
       <c r="AE20" s="9"/>
     </row>
-    <row r="21" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="28" t="s">
         <v>85</v>
@@ -23455,7 +23453,7 @@
       </c>
       <c r="AE21" s="9"/>
     </row>
-    <row r="22" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="28" t="s">
         <v>85</v>
@@ -23569,7 +23567,7 @@
       </c>
       <c r="AE22" s="9"/>
     </row>
-    <row r="23" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="28" t="s">
         <v>85</v>
@@ -23680,7 +23678,7 @@
       </c>
       <c r="AE23" s="9"/>
     </row>
-    <row r="24" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
@@ -23791,7 +23789,7 @@
       </c>
       <c r="AE24" s="9"/>
     </row>
-    <row r="25" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
@@ -23905,7 +23903,7 @@
       </c>
       <c r="AE25" s="9"/>
     </row>
-    <row r="26" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="11" t="s">
         <v>87</v>
@@ -24019,7 +24017,7 @@
       </c>
       <c r="AE26" s="9"/>
     </row>
-    <row r="27" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="45" t="s">
         <v>64</v>
@@ -24116,7 +24114,7 @@
       </c>
       <c r="AE27" s="9"/>
     </row>
-    <row r="28" spans="1:31" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="111"/>
       <c r="B28" s="28" t="s">
         <v>88</v>
@@ -24219,7 +24217,7 @@
       </c>
       <c r="AE28" s="111"/>
     </row>
-    <row r="29" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>61</v>
       </c>
@@ -24272,7 +24270,7 @@
         <v>0.21818241286553586</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="61" t="s">
         <v>89</v>
       </c>
@@ -24308,15 +24306,15 @@
         <v>-0.13769193570393079</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="9"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
@@ -24351,7 +24349,7 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="13"/>
@@ -24382,7 +24380,7 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>21</v>
       </c>
@@ -24417,7 +24415,7 @@
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
     </row>
-    <row r="36" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>42</v>
       </c>
@@ -24452,7 +24450,7 @@
       <c r="AC36" s="25"/>
       <c r="AD36" s="25"/>
     </row>
-    <row r="37" spans="2:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B37" s="28"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -24487,7 +24485,7 @@
       </c>
       <c r="AD37" s="121"/>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -24538,7 +24536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="28"/>
       <c r="C39" s="31"/>
       <c r="D39" s="9"/>
@@ -24601,7 +24599,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="28"/>
       <c r="C40" s="31"/>
       <c r="D40" s="9"/>
@@ -24686,7 +24684,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="2:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="28"/>
       <c r="C41" s="31"/>
       <c r="D41" s="9"/>
@@ -24721,7 +24719,7 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="28" t="s">
         <v>40</v>
       </c>
@@ -24836,7 +24834,7 @@
       </c>
       <c r="AE42" s="108"/>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="28" t="s">
         <v>63</v>
       </c>
@@ -24951,7 +24949,7 @@
       </c>
       <c r="AE43" s="108"/>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="28" t="s">
         <v>59</v>
       </c>
@@ -25066,7 +25064,7 @@
       </c>
       <c r="AE44" s="108"/>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="28" t="s">
         <v>83</v>
       </c>
@@ -25179,7 +25177,7 @@
       </c>
       <c r="AE45" s="108"/>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="28" t="s">
         <v>60</v>
       </c>
@@ -25294,7 +25292,7 @@
       </c>
       <c r="AE46" s="108"/>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="28" t="s">
         <v>57</v>
       </c>
@@ -25409,7 +25407,7 @@
       </c>
       <c r="AE47" s="108"/>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="28" t="s">
         <v>84</v>
       </c>
@@ -25522,7 +25520,7 @@
       </c>
       <c r="AE48" s="108"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="28" t="s">
         <v>58</v>
       </c>
@@ -25635,7 +25633,7 @@
       </c>
       <c r="AE49" s="108"/>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="28" t="s">
         <v>85</v>
       </c>
@@ -25748,7 +25746,7 @@
       </c>
       <c r="AE50" s="108"/>
     </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="28" t="s">
         <v>85</v>
       </c>
@@ -25861,7 +25859,7 @@
       </c>
       <c r="AE51" s="108"/>
     </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="28" t="s">
         <v>85</v>
       </c>
@@ -25971,7 +25969,7 @@
       </c>
       <c r="AE52" s="108"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="B53" s="28" t="s">
         <v>85</v>
       </c>
@@ -26081,7 +26079,7 @@
       </c>
       <c r="AE53" s="108"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="28" t="s">
         <v>86</v>
       </c>
@@ -26194,7 +26192,7 @@
       </c>
       <c r="AE54" s="108"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
@@ -26307,7 +26305,7 @@
       </c>
       <c r="AE55" s="108"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="45" t="s">
         <v>64</v>
       </c>
@@ -26403,7 +26401,7 @@
       </c>
       <c r="AE56" s="108"/>
     </row>
-    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="113"/>
       <c r="B57" s="28" t="s">
         <v>88</v>
@@ -26506,7 +26504,7 @@
       </c>
       <c r="AE57" s="113"/>
     </row>
-    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -26559,7 +26557,7 @@
         <v>0.81745553526896586</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61" t="s">
         <v>89</v>
       </c>
@@ -26595,8 +26593,8 @@
         <v>-0.49702690797754601</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="82" t="s">
         <v>31</v>
       </c>
@@ -26629,7 +26627,7 @@
       <c r="AC61" s="80"/>
       <c r="AD61" s="80"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="78" t="s">
         <v>22</v>
       </c>
@@ -26664,7 +26662,7 @@
       <c r="AC62" s="80"/>
       <c r="AD62" s="80"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B63" s="78"/>
       <c r="C63" s="79"/>
       <c r="D63" s="80"/>
@@ -26695,7 +26693,7 @@
       <c r="AC63" s="80"/>
       <c r="AD63" s="80"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="82" t="s">
         <v>21</v>
       </c>
@@ -26730,7 +26728,7 @@
       <c r="AC64" s="80"/>
       <c r="AD64" s="80"/>
     </row>
-    <row r="65" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="84" t="s">
         <v>43</v>
       </c>
@@ -26765,7 +26763,7 @@
       <c r="AC65" s="86"/>
       <c r="AD65" s="86"/>
     </row>
-    <row r="66" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B66" s="78"/>
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
@@ -26800,7 +26798,7 @@
       </c>
       <c r="AD66" s="122"/>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="88" t="s">
         <v>24</v>
       </c>
@@ -26851,7 +26849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="78"/>
       <c r="C68" s="81"/>
       <c r="D68" s="80"/>
@@ -26914,7 +26912,7 @@
       <c r="AC68" s="80"/>
       <c r="AD68" s="80"/>
     </row>
-    <row r="69" spans="2:30" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="78"/>
       <c r="C69" s="81"/>
       <c r="D69" s="80"/>
@@ -26999,7 +26997,7 @@
       <c r="AC69" s="80"/>
       <c r="AD69" s="80"/>
     </row>
-    <row r="70" spans="2:30" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="78"/>
       <c r="C70" s="81"/>
       <c r="D70" s="80"/>
@@ -27034,7 +27032,7 @@
       <c r="AC70" s="80"/>
       <c r="AD70" s="80"/>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="78" t="s">
         <v>40</v>
       </c>
@@ -27148,7 +27146,7 @@
         <v>0.52959200297544673</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="78" t="s">
         <v>63</v>
       </c>
@@ -27262,7 +27260,7 @@
         <v>-0.18068522117216357</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="78" t="s">
         <v>59</v>
       </c>
@@ -27376,7 +27374,7 @@
         <v>0.10296441107973665</v>
       </c>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="78" t="s">
         <v>83</v>
       </c>
@@ -27488,7 +27486,7 @@
         <v>-1.8872277924916796E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="78" t="s">
         <v>60</v>
       </c>
@@ -27602,7 +27600,7 @@
         <v>5.8489534132710658E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="78" t="s">
         <v>57</v>
       </c>
@@ -27716,7 +27714,7 @@
         <v>5.3427906212116093E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="78" t="s">
         <v>84</v>
       </c>
@@ -27828,7 +27826,7 @@
         <v>-1.1652579969846632E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="78" t="s">
         <v>58</v>
       </c>
@@ -27940,7 +27938,7 @@
         <v>-1.5361440535026596E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="78" t="s">
         <v>85</v>
       </c>
@@ -28052,7 +28050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="78" t="s">
         <v>85</v>
       </c>
@@ -28164,7 +28162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="78" t="s">
         <v>85</v>
       </c>
@@ -28273,7 +28271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="B82" s="78" t="s">
         <v>85</v>
       </c>
@@ -28383,7 +28381,7 @@
       </c>
       <c r="AG82" s="57"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="78" t="s">
         <v>86</v>
       </c>
@@ -28496,7 +28494,7 @@
       </c>
       <c r="AG83" s="57"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="88" t="s">
         <v>87</v>
       </c>
@@ -28609,7 +28607,7 @@
       </c>
       <c r="AG84" s="57"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="45" t="s">
         <v>64</v>
       </c>
@@ -28704,7 +28702,7 @@
         <v>0.31472493923132383</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="114" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="113"/>
       <c r="B86" s="28" t="s">
         <v>88</v>
@@ -28807,7 +28805,7 @@
       </c>
       <c r="AE86" s="113"/>
     </row>
-    <row r="87" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>61</v>
       </c>
@@ -28860,7 +28858,7 @@
         <v>0.14682384200630416</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="61" t="s">
         <v>89</v>
       </c>
@@ -28896,15 +28894,15 @@
         <v>-0.15500588795654013</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:33" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E91" s="9"/>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B92" s="18" t="s">
         <v>22</v>
       </c>
@@ -28939,7 +28937,7 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="13"/>
@@ -28970,7 +28968,7 @@
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B94" s="21" t="s">
         <v>21</v>
       </c>
@@ -29005,7 +29003,7 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="95" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="23" t="s">
         <v>44</v>
       </c>
@@ -29040,7 +29038,7 @@
       <c r="AC95" s="25"/>
       <c r="AD95" s="25"/>
     </row>
-    <row r="96" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B96" s="28"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -29075,7 +29073,7 @@
       </c>
       <c r="AD96" s="121"/>
     </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
         <v>24</v>
       </c>
@@ -29126,7 +29124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="28"/>
       <c r="C98" s="31"/>
       <c r="D98" s="9"/>
@@ -29189,7 +29187,7 @@
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
     </row>
-    <row r="99" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="28"/>
       <c r="C99" s="31"/>
       <c r="D99" s="9"/>
@@ -29274,7 +29272,7 @@
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
     </row>
-    <row r="100" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="28"/>
       <c r="C100" s="31"/>
       <c r="D100" s="9"/>
@@ -29309,7 +29307,7 @@
       <c r="AC100" s="9"/>
       <c r="AD100" s="9"/>
     </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B101" s="28" t="s">
         <v>40</v>
       </c>
@@ -29423,7 +29421,7 @@
         <v>0.14085918468756153</v>
       </c>
     </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B102" s="28" t="s">
         <v>63</v>
       </c>
@@ -29537,7 +29535,7 @@
         <v>-6.3474575506324349E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B103" s="28" t="s">
         <v>59</v>
       </c>
@@ -29651,7 +29649,7 @@
         <v>6.4073078796263644E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="28" t="s">
         <v>83</v>
       </c>
@@ -29763,7 +29761,7 @@
         <v>-7.1416084170538588E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B105" s="28" t="s">
         <v>60</v>
       </c>
@@ -29877,7 +29875,7 @@
         <v>3.7487610983652372E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="28" t="s">
         <v>57</v>
       </c>
@@ -29991,7 +29989,7 @@
         <v>3.4823545012512294E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B107" s="28" t="s">
         <v>84</v>
       </c>
@@ -30103,7 +30101,7 @@
         <v>-1.2259753682378327E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B108" s="28" t="s">
         <v>58</v>
       </c>
@@ -30215,7 +30213,7 @@
         <v>-4.1897763377139775E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:30" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="28" t="s">
         <v>85</v>
       </c>
@@ -30327,7 +30325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="28" t="s">
         <v>85</v>
       </c>
@@ -30439,7 +30437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B111" s="28" t="s">
         <v>85</v>
       </c>
@@ -30548,7 +30546,7 @@
         <v>-2.719003570062873E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="28" t="s">
         <v>85</v>
       </c>
@@ -30657,7 +30655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B113" s="28" t="s">
         <v>86</v>
       </c>
@@ -30769,7 +30767,7 @@
         <v>1.9082582592710399E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="11" t="s">
         <v>87</v>
       </c>
@@ -30881,7 +30879,7 @@
         <v>-6.4533148931025533E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B115" s="45" t="s">
         <v>64</v>
       </c>
@@ -30976,7 +30974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="113"/>
       <c r="B116" s="28" t="s">
         <v>88</v>
@@ -31079,7 +31077,7 @@
       </c>
       <c r="AE116" s="113"/>
     </row>
-    <row r="117" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>61</v>
       </c>
@@ -31132,7 +31130,7 @@
         <v>0.49172349598371778</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="61" t="s">
         <v>89</v>
       </c>
@@ -31168,7 +31166,7 @@
         <v>0.38401322023284545</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G96:I96"/>
@@ -31193,30 +31191,30 @@
       <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="13"/>
-    <col min="2" max="2" width="32.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.625" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="28" width="11.625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="28" width="11.6640625" style="15" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="16.5" style="15" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="12.125" style="15" customWidth="1"/>
-    <col min="31" max="31" width="15.375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" style="15" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" style="13" customWidth="1"/>
     <col min="32" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>45</v>
       </c>
@@ -31224,7 +31222,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>46</v>
       </c>
@@ -31232,14 +31230,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
@@ -31274,7 +31272,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
       <c r="D5" s="13"/>
@@ -31305,7 +31303,7 @@
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
@@ -31340,7 +31338,7 @@
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
@@ -31375,7 +31373,7 @@
       <c r="AC7" s="25"/>
       <c r="AD7" s="25"/>
     </row>
-    <row r="8" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -31410,7 +31408,7 @@
       </c>
       <c r="AD8" s="121"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -31461,7 +31459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="28"/>
       <c r="C10" s="31"/>
@@ -31526,7 +31524,7 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="9"/>
@@ -31611,7 +31609,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
       <c r="C12" s="31"/>
       <c r="D12" s="9"/>
@@ -31646,7 +31644,7 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
     </row>
-    <row r="13" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="28" t="s">
         <v>40</v>
@@ -31762,7 +31760,7 @@
       </c>
       <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="28" t="s">
         <v>63</v>
@@ -31878,7 +31876,7 @@
       </c>
       <c r="AE14" s="9"/>
     </row>
-    <row r="15" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="28" t="s">
         <v>59</v>
@@ -31994,7 +31992,7 @@
       </c>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="28" t="s">
         <v>83</v>
@@ -32108,7 +32106,7 @@
       </c>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="28" t="s">
         <v>60</v>
@@ -32224,7 +32222,7 @@
       </c>
       <c r="AE17" s="9"/>
     </row>
-    <row r="18" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="28" t="s">
         <v>57</v>
@@ -32340,7 +32338,7 @@
       </c>
       <c r="AE18" s="9"/>
     </row>
-    <row r="19" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="28" t="s">
         <v>84</v>
@@ -32454,7 +32452,7 @@
       </c>
       <c r="AE19" s="9"/>
     </row>
-    <row r="20" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="28" t="s">
         <v>58</v>
@@ -32568,7 +32566,7 @@
       </c>
       <c r="AE20" s="9"/>
     </row>
-    <row r="21" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="28" t="s">
         <v>85</v>
@@ -32682,7 +32680,7 @@
       </c>
       <c r="AE21" s="9"/>
     </row>
-    <row r="22" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="28" t="s">
         <v>85</v>
@@ -32796,7 +32794,7 @@
       </c>
       <c r="AE22" s="9"/>
     </row>
-    <row r="23" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="28" t="s">
         <v>85</v>
@@ -32907,7 +32905,7 @@
       </c>
       <c r="AE23" s="9"/>
     </row>
-    <row r="24" spans="1:31" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
@@ -33018,7 +33016,7 @@
       </c>
       <c r="AE24" s="9"/>
     </row>
-    <row r="25" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
@@ -33132,7 +33130,7 @@
       </c>
       <c r="AE25" s="9"/>
     </row>
-    <row r="26" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="11" t="s">
         <v>87</v>
@@ -33246,7 +33244,7 @@
       </c>
       <c r="AE26" s="9"/>
     </row>
-    <row r="27" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="45" t="s">
         <v>64</v>
@@ -33343,7 +33341,7 @@
       </c>
       <c r="AE27" s="9"/>
     </row>
-    <row r="28" spans="1:31" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="112" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="111"/>
       <c r="B28" s="28" t="s">
         <v>88</v>
@@ -33446,7 +33444,7 @@
       </c>
       <c r="AE28" s="111"/>
     </row>
-    <row r="29" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>61</v>
       </c>
@@ -33499,7 +33497,7 @@
         <v>-3.0182780365774819E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="61" t="s">
         <v>89</v>
       </c>
@@ -33535,15 +33533,15 @@
         <v>-7.5403667437012878E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="9"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
@@ -33578,7 +33576,7 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="13"/>
@@ -33609,7 +33607,7 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>21</v>
       </c>
@@ -33644,7 +33642,7 @@
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
     </row>
-    <row r="36" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>42</v>
       </c>
@@ -33679,7 +33677,7 @@
       <c r="AC36" s="25"/>
       <c r="AD36" s="25"/>
     </row>
-    <row r="37" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B37" s="28"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -33714,7 +33712,7 @@
       </c>
       <c r="AD37" s="121"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -33765,7 +33763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="28"/>
       <c r="C39" s="31"/>
       <c r="D39" s="9"/>
@@ -33828,7 +33826,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
     </row>
-    <row r="40" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="28"/>
       <c r="C40" s="31"/>
       <c r="D40" s="9"/>
@@ -33913,7 +33911,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
     </row>
-    <row r="41" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="28"/>
       <c r="C41" s="31"/>
       <c r="D41" s="9"/>
@@ -33948,7 +33946,7 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="28" t="s">
         <v>40</v>
       </c>
@@ -34062,7 +34060,7 @@
         <v>0.21731091886015255</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="28" t="s">
         <v>63</v>
       </c>
@@ -34176,7 +34174,7 @@
         <v>-1.4561164790905473E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="28" t="s">
         <v>59</v>
       </c>
@@ -34290,7 +34288,7 @@
         <v>2.3967078617025545E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="28" t="s">
         <v>83</v>
       </c>
@@ -34402,7 +34400,7 @@
         <v>-1.416869659694852E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="28" t="s">
         <v>60</v>
       </c>
@@ -34516,7 +34514,7 @@
         <v>-4.2511736051696468E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="28" t="s">
         <v>57</v>
       </c>
@@ -34630,7 +34628,7 @@
         <v>-2.5109713085701563E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="28" t="s">
         <v>84</v>
       </c>
@@ -34742,7 +34740,7 @@
         <v>-8.0323057831003207E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="28" t="s">
         <v>58</v>
       </c>
@@ -34854,7 +34852,7 @@
         <v>-4.7061410442287366E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="28" t="s">
         <v>85</v>
       </c>
@@ -34966,7 +34964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="28" t="s">
         <v>85</v>
       </c>
@@ -35078,7 +35076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="28" t="s">
         <v>85</v>
       </c>
@@ -35187,7 +35185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="B53" s="28" t="s">
         <v>85</v>
       </c>
@@ -35296,7 +35294,7 @@
         <v>-0.12602043145065703</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="28" t="s">
         <v>86</v>
       </c>
@@ -35408,7 +35406,7 @@
         <v>8.0011481718008492E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>87</v>
       </c>
@@ -35520,7 +35518,7 @@
         <v>-2.5283198785076545E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="45" t="s">
         <v>64</v>
       </c>
@@ -35615,7 +35613,7 @@
         <v>3.0357798611487987E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="113"/>
       <c r="B57" s="28" t="s">
         <v>88</v>
@@ -35718,7 +35716,7 @@
       </c>
       <c r="AE57" s="113"/>
     </row>
-    <row r="58" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -35771,7 +35769,7 @@
         <v>5.7874438262381922E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61" t="s">
         <v>89</v>
       </c>
@@ -35807,8 +35805,8 @@
         <v>-1.8947135319939745E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:31" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="82" t="s">
         <v>31</v>
       </c>
@@ -35841,7 +35839,7 @@
       <c r="AC61" s="80"/>
       <c r="AD61" s="80"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="78" t="s">
         <v>22</v>
       </c>
@@ -35876,7 +35874,7 @@
       <c r="AC62" s="80"/>
       <c r="AD62" s="80"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B63" s="78"/>
       <c r="C63" s="79"/>
       <c r="D63" s="80"/>
@@ -35907,7 +35905,7 @@
       <c r="AC63" s="80"/>
       <c r="AD63" s="80"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="82" t="s">
         <v>21</v>
       </c>
@@ -35942,7 +35940,7 @@
       <c r="AC64" s="80"/>
       <c r="AD64" s="80"/>
     </row>
-    <row r="65" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="84" t="s">
         <v>43</v>
       </c>
@@ -35977,7 +35975,7 @@
       <c r="AC65" s="86"/>
       <c r="AD65" s="86"/>
     </row>
-    <row r="66" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B66" s="78"/>
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
@@ -36012,7 +36010,7 @@
       </c>
       <c r="AD66" s="122"/>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="88" t="s">
         <v>24</v>
       </c>
@@ -36063,7 +36061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="78"/>
       <c r="C68" s="81"/>
       <c r="D68" s="80"/>
@@ -36126,7 +36124,7 @@
       <c r="AC68" s="80"/>
       <c r="AD68" s="80"/>
     </row>
-    <row r="69" spans="2:30" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="78"/>
       <c r="C69" s="81"/>
       <c r="D69" s="80"/>
@@ -36211,7 +36209,7 @@
       <c r="AC69" s="80"/>
       <c r="AD69" s="80"/>
     </row>
-    <row r="70" spans="2:30" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="78"/>
       <c r="C70" s="81"/>
       <c r="D70" s="80"/>
@@ -36246,7 +36244,7 @@
       <c r="AC70" s="80"/>
       <c r="AD70" s="80"/>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="78" t="s">
         <v>40</v>
       </c>
@@ -36360,7 +36358,7 @@
         <v>7.116896386815226E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="78" t="s">
         <v>63</v>
       </c>
@@ -36474,7 +36472,7 @@
         <v>-1.4185712289969669E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="78" t="s">
         <v>59</v>
       </c>
@@ -36588,7 +36586,7 @@
         <v>1.3730295465205303E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="78" t="s">
         <v>83</v>
       </c>
@@ -36700,7 +36698,7 @@
         <v>1.0819035129213898E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="78" t="s">
         <v>60</v>
       </c>
@@ -36814,7 +36812,7 @@
         <v>-4.0040618577585785E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="78" t="s">
         <v>57</v>
       </c>
@@ -36928,7 +36926,7 @@
         <v>-3.1189504592256556E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="78" t="s">
         <v>84</v>
       </c>
@@ -37040,7 +37038,7 @@
         <v>-9.6110850197440607E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="78" t="s">
         <v>58</v>
       </c>
@@ -37152,7 +37150,7 @@
         <v>-6.7746491430988676E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="78" t="s">
         <v>85</v>
       </c>
@@ -37264,7 +37262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="78" t="s">
         <v>85</v>
       </c>
@@ -37376,7 +37374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:33" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="78" t="s">
         <v>85</v>
       </c>
@@ -37485,7 +37483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:33" ht="30" x14ac:dyDescent="0.2">
       <c r="B82" s="78" t="s">
         <v>85</v>
       </c>
@@ -37595,7 +37593,7 @@
       </c>
       <c r="AG82" s="57"/>
     </row>
-    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="78" t="s">
         <v>86</v>
       </c>
@@ -37708,7 +37706,7 @@
       </c>
       <c r="AG83" s="57"/>
     </row>
-    <row r="84" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="88" t="s">
         <v>87</v>
       </c>
@@ -37821,7 +37819,7 @@
       </c>
       <c r="AG84" s="57"/>
     </row>
-    <row r="85" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="45" t="s">
         <v>64</v>
       </c>
@@ -37916,7 +37914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="28" t="s">
         <v>88</v>
       </c>
@@ -38017,7 +38015,7 @@
         <v>-0.146089717241075</v>
       </c>
     </row>
-    <row r="87" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>61</v>
       </c>
@@ -38070,7 +38068,7 @@
         <v>3.3131402780084418E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:33" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:33" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="61" t="s">
         <v>89</v>
       </c>
@@ -38106,15 +38104,15 @@
         <v>0.17922112002115942</v>
       </c>
     </row>
-    <row r="89" spans="2:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:33" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:33" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E91" s="9"/>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B92" s="18" t="s">
         <v>22</v>
       </c>
@@ -38149,7 +38147,7 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="13"/>
@@ -38180,7 +38178,7 @@
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B94" s="21" t="s">
         <v>21</v>
       </c>
@@ -38215,7 +38213,7 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="95" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="23" t="s">
         <v>44</v>
       </c>
@@ -38250,7 +38248,7 @@
       <c r="AC95" s="25"/>
       <c r="AD95" s="25"/>
     </row>
-    <row r="96" spans="2:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:33" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B96" s="28"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -38285,7 +38283,7 @@
       </c>
       <c r="AD96" s="121"/>
     </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
         <v>24</v>
       </c>
@@ -38336,7 +38334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="28"/>
       <c r="C98" s="31"/>
       <c r="D98" s="9"/>
@@ -38399,7 +38397,7 @@
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
     </row>
-    <row r="99" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="28"/>
       <c r="C99" s="31"/>
       <c r="D99" s="9"/>
@@ -38484,7 +38482,7 @@
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
     </row>
-    <row r="100" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="28"/>
       <c r="C100" s="31"/>
       <c r="D100" s="9"/>
@@ -38519,7 +38517,7 @@
       <c r="AC100" s="9"/>
       <c r="AD100" s="9"/>
     </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B101" s="28" t="s">
         <v>40</v>
       </c>
@@ -38633,7 +38631,7 @@
         <v>2.8680796041227963E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B102" s="28" t="s">
         <v>63</v>
       </c>
@@ -38747,7 +38745,7 @@
         <v>-5.7355715603873446E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B103" s="28" t="s">
         <v>59</v>
       </c>
@@ -38861,7 +38859,7 @@
         <v>2.5964998321288957E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="28" t="s">
         <v>83</v>
       </c>
@@ -38973,7 +38971,7 @@
         <v>-6.0837262123216189E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B105" s="28" t="s">
         <v>60</v>
       </c>
@@ -39087,7 +39085,7 @@
         <v>-4.8876595916208777E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="28" t="s">
         <v>57</v>
       </c>
@@ -39201,7 +39199,7 @@
         <v>-2.3678703917173978E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B107" s="28" t="s">
         <v>84</v>
       </c>
@@ -39313,7 +39311,7 @@
         <v>-1.0419060977944445E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B108" s="28" t="s">
         <v>58</v>
       </c>
@@ -39425,7 +39423,7 @@
         <v>-1.5702904434382703E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:30" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="28" t="s">
         <v>85</v>
       </c>
@@ -39537,7 +39535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="28" t="s">
         <v>85</v>
       </c>
@@ -39649,7 +39647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B111" s="28" t="s">
         <v>85</v>
       </c>
@@ -39758,7 +39756,7 @@
         <v>-1.6311634558921938E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:30" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="28" t="s">
         <v>85</v>
       </c>
@@ -39867,7 +39865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B113" s="28" t="s">
         <v>86</v>
       </c>
@@ -39979,7 +39977,7 @@
         <v>1.5007320758249631E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="11" t="s">
         <v>87</v>
       </c>
@@ -40091,7 +40089,7 @@
         <v>-5.0751498694823018E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="B115" s="45" t="s">
         <v>64</v>
       </c>
@@ -40186,7 +40184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" s="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="113"/>
       <c r="B116" s="28" t="s">
         <v>88</v>
@@ -40289,7 +40287,7 @@
       </c>
       <c r="AE116" s="113"/>
     </row>
-    <row r="117" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>61</v>
       </c>
@@ -40342,7 +40340,7 @@
         <v>3.3900820514809915E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="61" t="s">
         <v>89</v>
       </c>
@@ -40378,7 +40376,7 @@
         <v>0.16275230931943252</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G96:I96"/>
@@ -40406,44 +40404,44 @@
       <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="7" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="7" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.375" style="4" customWidth="1"/>
-    <col min="18" max="26" width="14.625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="4" customWidth="1"/>
+    <col min="18" max="26" width="14.6640625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="27" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="22" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
     <col min="41" max="63" width="23" customWidth="1"/>
-    <col min="64" max="64" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="68" width="25.125" style="2" customWidth="1"/>
+    <col min="64" max="64" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="68" width="25.1640625" style="2" customWidth="1"/>
     <col min="69" max="69" width="17.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="76" t="s">
         <v>16</v>
       </c>
@@ -40458,7 +40456,7 @@
       <c r="BP1" s="77"/>
       <c r="BQ1" s="77"/>
     </row>
-    <row r="2" spans="1:73" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -40591,7 +40589,7 @@
       <c r="BP2" s="8"/>
       <c r="BQ2" s="8"/>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -40748,7 +40746,7 @@
       <c r="BT3" s="5"/>
       <c r="BU3" s="5"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>CONCATENATE(B4,"_",C4,"_",D4)</f>
         <v>0_1_2002</v>
@@ -40886,7 +40884,7 @@
       <c r="BP4"/>
       <c r="BQ4"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" ref="A5:A71" si="0">CONCATENATE(B5,"_",C5,"_",D5)</f>
         <v>0_1_2003</v>
@@ -41034,7 +41032,7 @@
       <c r="BP5"/>
       <c r="BQ5"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2004</v>
@@ -41182,7 +41180,7 @@
       <c r="BP6"/>
       <c r="BQ6"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2005</v>
@@ -41330,7 +41328,7 @@
       <c r="BP7"/>
       <c r="BQ7"/>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2006</v>
@@ -41478,7 +41476,7 @@
       <c r="BP8"/>
       <c r="BQ8"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2007</v>
@@ -41626,7 +41624,7 @@
       <c r="BP9"/>
       <c r="BQ9"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2008</v>
@@ -41774,7 +41772,7 @@
       <c r="BP10"/>
       <c r="BQ10"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2009</v>
@@ -41922,7 +41920,7 @@
       <c r="BP11"/>
       <c r="BQ11"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2010</v>
@@ -42070,7 +42068,7 @@
       <c r="BP12"/>
       <c r="BQ12"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2011</v>
@@ -42218,7 +42216,7 @@
       <c r="BP13"/>
       <c r="BQ13"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2012</v>
@@ -42366,7 +42364,7 @@
       <c r="BP14"/>
       <c r="BQ14"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2013</v>
@@ -42514,7 +42512,7 @@
       <c r="BP15"/>
       <c r="BQ15"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2014</v>
@@ -42662,7 +42660,7 @@
       <c r="BP16"/>
       <c r="BQ16"/>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2015</v>
@@ -42810,7 +42808,7 @@
       <c r="BP17"/>
       <c r="BQ17"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2016</v>
@@ -42958,7 +42956,7 @@
       <c r="BP18"/>
       <c r="BQ18"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2017</v>
@@ -43106,7 +43104,7 @@
       <c r="BP19"/>
       <c r="BQ19"/>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>0_1_2018</v>
@@ -43254,7 +43252,7 @@
       <c r="BP20"/>
       <c r="BQ20"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2002</v>
@@ -43402,7 +43400,7 @@
       <c r="BP21"/>
       <c r="BQ21"/>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2003</v>
@@ -43550,7 +43548,7 @@
       <c r="BP22"/>
       <c r="BQ22"/>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2004</v>
@@ -43698,7 +43696,7 @@
       <c r="BP23"/>
       <c r="BQ23"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2005</v>
@@ -43846,7 +43844,7 @@
       <c r="BP24"/>
       <c r="BQ24"/>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2006</v>
@@ -43994,7 +43992,7 @@
       <c r="BP25"/>
       <c r="BQ25"/>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2007</v>
@@ -44142,7 +44140,7 @@
       <c r="BP26"/>
       <c r="BQ26"/>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2008</v>
@@ -44290,7 +44288,7 @@
       <c r="BP27"/>
       <c r="BQ27"/>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2009</v>
@@ -44438,7 +44436,7 @@
       <c r="BP28"/>
       <c r="BQ28"/>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2010</v>
@@ -44586,7 +44584,7 @@
       <c r="BP29"/>
       <c r="BQ29"/>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2011</v>
@@ -44734,7 +44732,7 @@
       <c r="BP30"/>
       <c r="BQ30"/>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2012</v>
@@ -44882,7 +44880,7 @@
       <c r="BP31"/>
       <c r="BQ31"/>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2013</v>
@@ -45030,7 +45028,7 @@
       <c r="BP32"/>
       <c r="BQ32"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2014</v>
@@ -45178,7 +45176,7 @@
       <c r="BP33"/>
       <c r="BQ33"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2015</v>
@@ -45326,7 +45324,7 @@
       <c r="BP34"/>
       <c r="BQ34"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2016</v>
@@ -45474,7 +45472,7 @@
       <c r="BP35"/>
       <c r="BQ35"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2017</v>
@@ -45622,7 +45620,7 @@
       <c r="BP36"/>
       <c r="BQ36"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>0_2_2018</v>
@@ -45770,7 +45768,7 @@
       <c r="BP37"/>
       <c r="BQ37"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2002</v>
@@ -45918,7 +45916,7 @@
       <c r="BP38"/>
       <c r="BQ38"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2003</v>
@@ -46066,7 +46064,7 @@
       <c r="BP39"/>
       <c r="BQ39"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2004</v>
@@ -46214,7 +46212,7 @@
       <c r="BP40"/>
       <c r="BQ40"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2005</v>
@@ -46362,7 +46360,7 @@
       <c r="BP41"/>
       <c r="BQ41"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2006</v>
@@ -46510,7 +46508,7 @@
       <c r="BP42"/>
       <c r="BQ42"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2007</v>
@@ -46658,7 +46656,7 @@
       <c r="BP43"/>
       <c r="BQ43"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2008</v>
@@ -46806,7 +46804,7 @@
       <c r="BP44"/>
       <c r="BQ44"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2009</v>
@@ -46954,7 +46952,7 @@
       <c r="BP45"/>
       <c r="BQ45"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2010</v>
@@ -47102,7 +47100,7 @@
       <c r="BP46"/>
       <c r="BQ46"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2011</v>
@@ -47250,7 +47248,7 @@
       <c r="BP47"/>
       <c r="BQ47"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2012</v>
@@ -47398,7 +47396,7 @@
       <c r="BP48"/>
       <c r="BQ48"/>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2013</v>
@@ -47546,7 +47544,7 @@
       <c r="BP49"/>
       <c r="BQ49"/>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2014</v>
@@ -47694,7 +47692,7 @@
       <c r="BP50"/>
       <c r="BQ50"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2015</v>
@@ -47842,7 +47840,7 @@
       <c r="BP51"/>
       <c r="BQ51"/>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2016</v>
@@ -47990,7 +47988,7 @@
       <c r="BP52"/>
       <c r="BQ52"/>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2017</v>
@@ -48138,7 +48136,7 @@
       <c r="BP53"/>
       <c r="BQ53"/>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>0_3_2018</v>
@@ -48286,7 +48284,7 @@
       <c r="BP54"/>
       <c r="BQ54"/>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" ref="A55:A59" si="1">CONCATENATE(B55,"_",C55,"_",D55)</f>
         <v>0_10_2002</v>
@@ -48434,7 +48432,7 @@
       <c r="BP55"/>
       <c r="BQ55"/>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>0_10_2003</v>
@@ -48582,7 +48580,7 @@
       <c r="BP56"/>
       <c r="BQ56"/>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>0_10_2004</v>
@@ -48730,7 +48728,7 @@
       <c r="BP57"/>
       <c r="BQ57"/>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>0_10_2005</v>
@@ -48878,7 +48876,7 @@
       <c r="BP58"/>
       <c r="BQ58"/>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>0_10_2006</v>
@@ -49026,7 +49024,7 @@
       <c r="BP59"/>
       <c r="BQ59"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2007</v>
@@ -49174,7 +49172,7 @@
       <c r="BP60"/>
       <c r="BQ60"/>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2008</v>
@@ -49322,7 +49320,7 @@
       <c r="BP61"/>
       <c r="BQ61"/>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2009</v>
@@ -49470,7 +49468,7 @@
       <c r="BP62"/>
       <c r="BQ62"/>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2010</v>
@@ -49618,7 +49616,7 @@
       <c r="BP63"/>
       <c r="BQ63"/>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2011</v>
@@ -49766,7 +49764,7 @@
       <c r="BP64"/>
       <c r="BQ64"/>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2012</v>
@@ -49914,7 +49912,7 @@
       <c r="BP65"/>
       <c r="BQ65"/>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2013</v>
@@ -50062,7 +50060,7 @@
       <c r="BP66"/>
       <c r="BQ66"/>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2014</v>
@@ -50210,7 +50208,7 @@
       <c r="BP67"/>
       <c r="BQ67"/>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2015</v>
@@ -50358,7 +50356,7 @@
       <c r="BP68"/>
       <c r="BQ68"/>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2016</v>
@@ -50506,7 +50504,7 @@
       <c r="BP69"/>
       <c r="BQ69"/>
     </row>
-    <row r="70" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2017</v>
@@ -50654,7 +50652,7 @@
       <c r="BP70"/>
       <c r="BQ70"/>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="0"/>
         <v>0_10_2018</v>
@@ -50802,7 +50800,7 @@
       <c r="BP71"/>
       <c r="BQ71"/>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.2">
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
@@ -50847,7 +50845,7 @@
       <c r="BP72"/>
       <c r="BQ72"/>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.2">
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
@@ -50893,7 +50891,7 @@
       <c r="BO73"/>
       <c r="BP73"/>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>17</v>
       </c>
@@ -50943,7 +50941,7 @@
       <c r="BO74"/>
       <c r="BP74"/>
     </row>
-    <row r="75" spans="1:73" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:73" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>0</v>
       </c>
@@ -51080,7 +51078,7 @@
       <c r="BT75"/>
       <c r="BU75"/>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" ref="A76:A143" si="2">CONCATENATE(B76,"_",C76,"_",D76)</f>
         <v>1_1_2002</v>
@@ -51218,7 +51216,7 @@
       <c r="BP76"/>
       <c r="BQ76"/>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2003</v>
@@ -51366,7 +51364,7 @@
       <c r="BP77"/>
       <c r="BQ77"/>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2004</v>
@@ -51514,7 +51512,7 @@
       <c r="BP78"/>
       <c r="BQ78"/>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2005</v>
@@ -51662,7 +51660,7 @@
       <c r="BP79"/>
       <c r="BQ79"/>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2006</v>
@@ -51810,7 +51808,7 @@
       <c r="BP80"/>
       <c r="BQ80"/>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2007</v>
@@ -51958,7 +51956,7 @@
       <c r="BP81"/>
       <c r="BQ81"/>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2008</v>
@@ -52106,7 +52104,7 @@
       <c r="BP82"/>
       <c r="BQ82"/>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2009</v>
@@ -52254,7 +52252,7 @@
       <c r="BP83"/>
       <c r="BQ83"/>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2010</v>
@@ -52402,7 +52400,7 @@
       <c r="BP84"/>
       <c r="BQ84"/>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2011</v>
@@ -52550,7 +52548,7 @@
       <c r="BP85"/>
       <c r="BQ85"/>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2012</v>
@@ -52698,7 +52696,7 @@
       <c r="BP86"/>
       <c r="BQ86"/>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2013</v>
@@ -52846,7 +52844,7 @@
       <c r="BP87"/>
       <c r="BQ87"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2014</v>
@@ -52994,7 +52992,7 @@
       <c r="BP88"/>
       <c r="BQ88"/>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2015</v>
@@ -53142,7 +53140,7 @@
       <c r="BP89"/>
       <c r="BQ89"/>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2016</v>
@@ -53290,7 +53288,7 @@
       <c r="BP90"/>
       <c r="BQ90"/>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2017</v>
@@ -53438,7 +53436,7 @@
       <c r="BP91"/>
       <c r="BQ91"/>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>1_1_2018</v>
@@ -53586,7 +53584,7 @@
       <c r="BP92"/>
       <c r="BQ92"/>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2002</v>
@@ -53734,7 +53732,7 @@
       <c r="BP93"/>
       <c r="BQ93"/>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2003</v>
@@ -53882,7 +53880,7 @@
       <c r="BP94"/>
       <c r="BQ94"/>
     </row>
-    <row r="95" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2004</v>
@@ -54030,7 +54028,7 @@
       <c r="BP95"/>
       <c r="BQ95"/>
     </row>
-    <row r="96" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2005</v>
@@ -54178,7 +54176,7 @@
       <c r="BP96"/>
       <c r="BQ96"/>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2006</v>
@@ -54326,7 +54324,7 @@
       <c r="BP97"/>
       <c r="BQ97"/>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2007</v>
@@ -54474,7 +54472,7 @@
       <c r="BP98"/>
       <c r="BQ98"/>
     </row>
-    <row r="99" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2008</v>
@@ -54622,7 +54620,7 @@
       <c r="BP99"/>
       <c r="BQ99"/>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2009</v>
@@ -54770,7 +54768,7 @@
       <c r="BP100"/>
       <c r="BQ100"/>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2010</v>
@@ -54918,7 +54916,7 @@
       <c r="BP101"/>
       <c r="BQ101"/>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2011</v>
@@ -55066,7 +55064,7 @@
       <c r="BP102"/>
       <c r="BQ102"/>
     </row>
-    <row r="103" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2012</v>
@@ -55214,7 +55212,7 @@
       <c r="BP103"/>
       <c r="BQ103"/>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2013</v>
@@ -55362,7 +55360,7 @@
       <c r="BP104"/>
       <c r="BQ104"/>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2014</v>
@@ -55510,7 +55508,7 @@
       <c r="BP105"/>
       <c r="BQ105"/>
     </row>
-    <row r="106" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2015</v>
@@ -55658,7 +55656,7 @@
       <c r="BP106"/>
       <c r="BQ106"/>
     </row>
-    <row r="107" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2016</v>
@@ -55806,7 +55804,7 @@
       <c r="BP107"/>
       <c r="BQ107"/>
     </row>
-    <row r="108" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2017</v>
@@ -55954,7 +55952,7 @@
       <c r="BP108"/>
       <c r="BQ108"/>
     </row>
-    <row r="109" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>1_2_2018</v>
@@ -56102,7 +56100,7 @@
       <c r="BP109"/>
       <c r="BQ109"/>
     </row>
-    <row r="110" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" ref="A110:A126" si="3">CONCATENATE(B110,"_",C110,"_",D110)</f>
         <v>1_3_2002</v>
@@ -56250,7 +56248,7 @@
       <c r="BP110"/>
       <c r="BQ110"/>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2003</v>
@@ -56398,7 +56396,7 @@
       <c r="BP111"/>
       <c r="BQ111"/>
     </row>
-    <row r="112" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2004</v>
@@ -56546,7 +56544,7 @@
       <c r="BP112"/>
       <c r="BQ112"/>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2005</v>
@@ -56694,7 +56692,7 @@
       <c r="BP113"/>
       <c r="BQ113"/>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2006</v>
@@ -56842,7 +56840,7 @@
       <c r="BP114"/>
       <c r="BQ114"/>
     </row>
-    <row r="115" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2007</v>
@@ -56990,7 +56988,7 @@
       <c r="BP115"/>
       <c r="BQ115"/>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2008</v>
@@ -57138,7 +57136,7 @@
       <c r="BP116"/>
       <c r="BQ116"/>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2009</v>
@@ -57286,7 +57284,7 @@
       <c r="BP117"/>
       <c r="BQ117"/>
     </row>
-    <row r="118" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2010</v>
@@ -57434,7 +57432,7 @@
       <c r="BP118"/>
       <c r="BQ118"/>
     </row>
-    <row r="119" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2011</v>
@@ -57582,7 +57580,7 @@
       <c r="BP119"/>
       <c r="BQ119"/>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2012</v>
@@ -57730,7 +57728,7 @@
       <c r="BP120"/>
       <c r="BQ120"/>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2013</v>
@@ -57878,7 +57876,7 @@
       <c r="BP121"/>
       <c r="BQ121"/>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2014</v>
@@ -58026,7 +58024,7 @@
       <c r="BP122"/>
       <c r="BQ122"/>
     </row>
-    <row r="123" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2015</v>
@@ -58174,7 +58172,7 @@
       <c r="BP123"/>
       <c r="BQ123"/>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2016</v>
@@ -58322,7 +58320,7 @@
       <c r="BP124"/>
       <c r="BQ124"/>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2017</v>
@@ -58470,7 +58468,7 @@
       <c r="BP125"/>
       <c r="BQ125"/>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f t="shared" si="3"/>
         <v>1_3_2018</v>
@@ -58618,7 +58616,7 @@
       <c r="BP126"/>
       <c r="BQ126"/>
     </row>
-    <row r="127" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2002</v>
@@ -58766,7 +58764,7 @@
       <c r="BP127"/>
       <c r="BQ127"/>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2003</v>
@@ -58914,7 +58912,7 @@
       <c r="BP128"/>
       <c r="BQ128"/>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2004</v>
@@ -59062,7 +59060,7 @@
       <c r="BP129"/>
       <c r="BQ129"/>
     </row>
-    <row r="130" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2005</v>
@@ -59210,7 +59208,7 @@
       <c r="BP130"/>
       <c r="BQ130"/>
     </row>
-    <row r="131" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2006</v>
@@ -59358,7 +59356,7 @@
       <c r="BP131"/>
       <c r="BQ131"/>
     </row>
-    <row r="132" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2007</v>
@@ -59506,7 +59504,7 @@
       <c r="BP132"/>
       <c r="BQ132"/>
     </row>
-    <row r="133" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2008</v>
@@ -59654,7 +59652,7 @@
       <c r="BP133"/>
       <c r="BQ133"/>
     </row>
-    <row r="134" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2009</v>
@@ -59802,7 +59800,7 @@
       <c r="BP134"/>
       <c r="BQ134"/>
     </row>
-    <row r="135" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2010</v>
@@ -59950,7 +59948,7 @@
       <c r="BP135"/>
       <c r="BQ135"/>
     </row>
-    <row r="136" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2011</v>
@@ -60098,7 +60096,7 @@
       <c r="BP136"/>
       <c r="BQ136"/>
     </row>
-    <row r="137" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2012</v>
@@ -60246,7 +60244,7 @@
       <c r="BP137"/>
       <c r="BQ137"/>
     </row>
-    <row r="138" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2013</v>
@@ -60394,7 +60392,7 @@
       <c r="BP138"/>
       <c r="BQ138"/>
     </row>
-    <row r="139" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2014</v>
@@ -60542,7 +60540,7 @@
       <c r="BP139"/>
       <c r="BQ139"/>
     </row>
-    <row r="140" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2015</v>
@@ -60690,7 +60688,7 @@
       <c r="BP140"/>
       <c r="BQ140"/>
     </row>
-    <row r="141" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2016</v>
@@ -60838,7 +60836,7 @@
       <c r="BP141"/>
       <c r="BQ141"/>
     </row>
-    <row r="142" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2017</v>
@@ -60986,7 +60984,7 @@
       <c r="BP142"/>
       <c r="BQ142"/>
     </row>
-    <row r="143" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>1_10_2018</v>
